--- a/StructureDefinition-GencliprEncounter.xlsx
+++ b/StructureDefinition-GencliprEncounter.xlsx
@@ -1516,45 +1516,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.53125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.2265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="88.7421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="187.4921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="191.12890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-GencliprEncounter.xlsx
+++ b/StructureDefinition-GencliprEncounter.xlsx
@@ -524,7 +524,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/EncounterClassCodes</t>
+    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/EncounterClasses</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -597,7 +597,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/EncounterTypeCodes</t>
+    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/EncounterTypes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1540,7 +1540,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.65234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-GencliprEncounter.xlsx
+++ b/StructureDefinition-GencliprEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T00:45:29+00:00</t>
+    <t>2022-03-21T00:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
